--- a/Daily/ACF - PACF/Log-Prices/NIKKEI_parameters.xlsx
+++ b/Daily/ACF - PACF/Log-Prices/NIKKEI_parameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Standard Error</t>
   </si>
@@ -28,7 +28,25 @@
     <t>ar.L1</t>
   </si>
   <si>
+    <t>ar.L2</t>
+  </si>
+  <si>
+    <t>ar.L3</t>
+  </si>
+  <si>
+    <t>ar.L4</t>
+  </si>
+  <si>
     <t>ma.L1</t>
+  </si>
+  <si>
+    <t>ma.L2</t>
+  </si>
+  <si>
+    <t>ma.L3</t>
+  </si>
+  <si>
+    <t>ma.L4</t>
   </si>
   <si>
     <t>sigma2</t>
@@ -389,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.1040545819589942</v>
+        <v>0.1145847089181739</v>
       </c>
       <c r="C2">
-        <v>95.42836182451155</v>
+        <v>86.65866793059837</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0007200053659364511</v>
+        <v>2.255245743768</v>
       </c>
       <c r="C3">
-        <v>1385.705374010633</v>
+        <v>0.5675878131037192</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.01272804222993519</v>
+        <v>1.685049533188611</v>
       </c>
       <c r="C4">
-        <v>-2.171385670933058</v>
+        <v>-0.3701091000957754</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +459,76 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2.753616702859525E-06</v>
+        <v>0.4399973089426402</v>
       </c>
       <c r="C5">
-        <v>62.23538149709529</v>
+        <v>1.055659154945033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.9461936041765647</v>
+      </c>
+      <c r="C6">
+        <v>-0.129886839172088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2.251859026669976</v>
+      </c>
+      <c r="C7">
+        <v>-0.1372611745946303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.6537706795826708</v>
+      </c>
+      <c r="C8">
+        <v>0.6127631619270515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1.038650483946556</v>
+      </c>
+      <c r="C9">
+        <v>-0.1795853952594938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.0840466738903462</v>
+      </c>
+      <c r="C10">
+        <v>0.3046681881323509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2.94156965191305E-06</v>
+      </c>
+      <c r="C11">
+        <v>58.03001995847399</v>
       </c>
     </row>
   </sheetData>
